--- a/biology/Zoologie/Holacanthus/Holacanthus.xlsx
+++ b/biology/Zoologie/Holacanthus/Holacanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Holacanthus est un genre de poissons de la famille des Pomacanthidae. Ils font partie du groupe des poissons-anges, même si certains sont parfois appelés « demoiselles ». 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (17 octobre 2014)[1] et FishBase                                           (17 octobre 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (17 octobre 2014) et FishBase                                           (17 octobre 2014) :
 Holacanthus africanus Cadenat, 1951 — Poisson-ange africain
 Holacanthus bermudensis Goode, 1876 — Poisson-ange bleu, Demoiselle bleue
 Holacanthus ciliaris (Linnaeus, 1758) — Poisson-ange royal, Demoiselle royale
@@ -522,7 +536,7 @@
 Holacanthus limbaughi Baldwin, 1963
 Holacanthus passer Valenciennes, 1846 — Poisson-ange à barre blanche
 Holacanthus tricolor (Bloch, 1795) — Poisson-ange tricolore, Poisson-ange noir et jaune, Demoiselle beauté
-ITIS      (17 octobre 2014)[3] y ajoute 5 espèces inconnues de WoRMS :
+ITIS      (17 octobre 2014) y ajoute 5 espèces inconnues de WoRMS :
 Holacanthus albofasciatus Tanaka, 1909 — Poisson-ange africain
 Holacanthus lasti von Bonde, 1934
 Holacanthus rodriquesi von Bonde, 1934
